--- a/DataCW3M/RegressionTesting/CW3M_Marys.xlsx
+++ b/DataCW3M/RegressionTesting/CW3M_Marys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CW3M\trunk\DataCW3M\RegressionTesting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\RegressionTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A2C696-416E-42E4-8F94-C968D8C95ACB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322F51F-84C8-40DE-A5D9-241A00486E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2006" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="79">
   <si>
     <t xml:space="preserve"> tot in HRUs reaches and reservoirs at end of last year (mm H2O)</t>
   </si>
@@ -264,6 +267,15 @@
   </si>
   <si>
     <t>CW3M c192</t>
+  </si>
+  <si>
+    <t>Baseline-Demo 2010-20 C293+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> water added by FlowModel (mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> weather year</t>
   </si>
 </sst>
 </file>
@@ -5508,13 +5520,13 @@
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>16</v>
       </c>
@@ -5561,7 +5573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -5614,7 +5626,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -5680,19 +5692,19 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="23" customWidth="1"/>
-    <col min="4" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" style="23" customWidth="1"/>
+    <col min="4" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -5745,7 +5757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
@@ -5795,7 +5807,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -5848,7 +5860,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -5901,7 +5913,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -5954,7 +5966,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>43</v>
       </c>
@@ -6007,7 +6019,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>43</v>
       </c>
@@ -6060,7 +6072,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
@@ -6113,7 +6125,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>55</v>
       </c>
@@ -6169,7 +6181,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
@@ -6222,7 +6234,7 @@
         <v>6.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -6278,7 +6290,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>58</v>
       </c>
@@ -6331,7 +6343,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>58</v>
       </c>
@@ -6384,7 +6396,7 @@
         <v>9.0000000000000002E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14"/>
       <c r="D14" s="1"/>
@@ -6402,7 +6414,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15"/>
       <c r="D15"/>
@@ -6420,7 +6432,7 @@
       <c r="P15"/>
       <c r="Q15"/>
     </row>
-    <row r="16" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>49</v>
       </c>
@@ -6473,7 +6485,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>58</v>
       </c>
@@ -6529,7 +6541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="1"/>
@@ -6547,7 +6559,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
@@ -6656,7 +6668,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19"/>
       <c r="C22" s="25"/>
       <c r="D22" s="12"/>
@@ -6674,7 +6686,7 @@
       <c r="P22" s="12"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C23" s="22"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -6690,7 +6702,7 @@
       <c r="O23" s="2"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>6.9999999999999999E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -6803,19 +6815,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133D364E-FC33-44CA-8EBD-A55BE4DB6617}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I1" sqref="I1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -6837,35 +6849,36 @@
       <c r="H1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -6890,35 +6903,36 @@
       <c r="H2" s="1">
         <v>6.1057925714285712</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>9.5847058571428558</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>638.06876914285715</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>10.616957857142856</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>883.14003200000002</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2101.1822510000002</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>9310.2259345714283</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>7950.2166574285711</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1.9042285714285713E-2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>5.1428571428571432E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -6943,35 +6957,36 @@
       <c r="H3" s="1">
         <v>6.1057925714285712</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>9.5847058571428558</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>644.26476171428578</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>13.038161714285717</v>
       </c>
-      <c r="L3" s="8">
+      <c r="M3" s="8">
         <v>1087.7791138571426</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>2373.5994350000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>8639.3052455714296</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>7950.2166574285711</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>2.3650285714285714E-2</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>5.7142857142857137E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -6996,35 +7011,36 @@
       <c r="H4" s="1">
         <v>6.1026674285714284</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
         <v>9.5773594285714285</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>641.23881314285711</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>10.517501714285714</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>882.50047957142863</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>2104.5150844285713</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>9186.7506277142838</v>
       </c>
-      <c r="O4" s="2">
+      <c r="P4" s="2">
         <v>7945.1293945714297</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>1.8982714285714287E-2</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>5.1428571428571432E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>45</v>
       </c>
@@ -7046,32 +7062,84 @@
       <c r="H5" s="1">
         <v>6.1057925714285712</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
         <v>9.5847058571428558</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>642.29807842857133</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>10.372513142857143</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>875.23100928571432</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>2090.4755510000005</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>9340.2606724285706</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P5" s="2">
         <v>7950.2166574285711</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>1.8783428571428569E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>5.1428571428571432E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1466.5988768571428</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1581.8015835714286</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.6260155714285713</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>6.1057925714285712</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>4.9445018571428578</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9.5847058571428558</v>
+      </c>
+      <c r="L6" s="1">
+        <v>782.21579414285713</v>
+      </c>
+      <c r="M6" s="1">
+        <v>10.212291714285714</v>
+      </c>
+      <c r="N6" s="1">
+        <v>760.74916728571429</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1500.3313685714286</v>
+      </c>
+      <c r="P6" s="2">
+        <v>10025.099330285713</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>7950.2166574285711</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1.655742857142857E-2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>5.285714285714286E-6</v>
       </c>
     </row>
   </sheetData>
@@ -7083,18 +7151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BA0223-0031-4CB2-A761-44CBFEC423EE}">
   <dimension ref="A1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -7144,7 +7212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -7197,7 +7265,7 @@
         <v>4.1250000000000003E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -7250,7 +7318,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -7303,7 +7371,7 @@
         <v>5.7499999999999992E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -7356,7 +7424,7 @@
         <v>5.2500000000000006E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7372,7 +7440,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="6"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -7425,7 +7493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -7475,7 +7543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>2010</v>
       </c>
@@ -7522,7 +7590,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2011</v>
       </c>
@@ -7569,7 +7637,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7584,7 +7652,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -7634,7 +7702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2010</v>
       </c>
@@ -7681,7 +7749,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>2011</v>
       </c>
@@ -7728,7 +7796,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -7781,7 +7849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>2010</v>
       </c>
@@ -7828,7 +7896,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2011</v>
       </c>
@@ -7875,7 +7943,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>2012</v>
       </c>
@@ -7922,7 +7990,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>2013</v>
       </c>
@@ -7969,7 +8037,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>2014</v>
       </c>
@@ -8016,7 +8084,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C25">
         <v>2015</v>
       </c>
@@ -8063,7 +8131,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>2016</v>
       </c>
@@ -8110,7 +8178,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
         <f>AVERAGE(D20:D26)</f>
         <v>3228.9934082857139</v>
@@ -8168,7 +8236,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -8221,7 +8289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>2010</v>
       </c>
@@ -8268,7 +8336,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>2011</v>
       </c>
@@ -8315,7 +8383,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>2012</v>
       </c>
@@ -8362,7 +8430,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
     </row>
-    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>2013</v>
       </c>
@@ -8409,7 +8477,7 @@
         <v>3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>2014</v>
       </c>
@@ -8456,7 +8524,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>2015</v>
       </c>
@@ -8503,7 +8571,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>2016</v>
       </c>
@@ -8550,7 +8618,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>33</v>
       </c>
@@ -8611,7 +8679,7 @@
         <v>3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>16</v>
       </c>
@@ -8628,7 +8696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>2010</v>
       </c>
@@ -8645,7 +8713,7 @@
         <v>855.346497</v>
       </c>
     </row>
-    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>2011</v>
       </c>
@@ -8662,7 +8730,7 @@
         <v>795.34533699999997</v>
       </c>
     </row>
-    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>2012</v>
       </c>
@@ -8679,7 +8747,7 @@
         <v>1167.4954829999999</v>
       </c>
     </row>
-    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>2013</v>
       </c>
@@ -8696,7 +8764,7 @@
         <v>588.069031</v>
       </c>
     </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>2014</v>
       </c>
@@ -8713,7 +8781,7 @@
         <v>903.90325900000005</v>
       </c>
     </row>
-    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>2015</v>
       </c>
@@ -8730,7 +8798,7 @@
         <v>818.557007</v>
       </c>
     </row>
-    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>2016</v>
       </c>
@@ -8747,7 +8815,7 @@
         <v>1017.603516</v>
       </c>
     </row>
-    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>2017</v>
       </c>
@@ -8763,19 +8831,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5857BB92-B06E-40EB-82B4-FD70D77A9131}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>27</v>
       </c>
@@ -8798,34 +8866,37 @@
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -8850,35 +8921,36 @@
       <c r="H2" s="1">
         <v>5.9751209999999997</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
         <v>9.4747844444444436</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>553.09131544444438</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>9.557058888888891</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>830.4103394444445</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>2074.7624374444445</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>2191.9266128888894</v>
       </c>
-      <c r="O2" s="2">
+      <c r="P2" s="2">
         <v>7870.7319335555558</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>1.7961888888888888E-2</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>4.8888888888888893E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -8903,98 +8975,210 @@
       <c r="H3" s="1">
         <v>5.9664705555555555</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1">
         <v>9.467576111111109</v>
       </c>
-      <c r="J3" s="8">
+      <c r="K3" s="8">
         <v>759.10249155555573</v>
       </c>
-      <c r="K3" s="7">
+      <c r="L3" s="7">
         <v>17.304157444444442</v>
       </c>
-      <c r="L3" s="7">
+      <c r="M3" s="7">
         <v>791.58983011111104</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>1615.6406793333333</v>
       </c>
-      <c r="N3" s="9">
+      <c r="O3" s="9">
         <v>10287.477538888888</v>
       </c>
-      <c r="O3" s="2">
+      <c r="P3" s="2">
         <v>7865.2705078888876</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>1.6872222222222219E-2</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>5.2222222222222226E-6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="6"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1515.0175916666667</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1566.3352186666666</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.5614631111111112</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.9664705555555555</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4.648649555555556</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9.467576111111109</v>
+      </c>
+      <c r="K4" s="12">
+        <v>756.02423088888895</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10.593114222222221</v>
+      </c>
+      <c r="M4" s="7">
+        <v>779.30671855555556</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1540.1550428888888</v>
+      </c>
+      <c r="O4" s="9">
+        <v>9694.2694226666663</v>
+      </c>
+      <c r="P4" s="2">
+        <v>7865.2705078888876</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.7289555555555555E-2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>5.4444444444444447E-6</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <v>3269.4371032499998</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <v>1606.3054199999999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F6" s="1">
         <v>2.1750573750000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H6" s="1">
         <v>6.0461613749999996</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
         <v>9.5302817499999986</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="1">
         <v>621.42118074999996</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L6" s="1">
         <v>10.837702125000002</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M6" s="1">
         <v>914.8039551249999</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N6" s="1">
         <v>3327.3902893750001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O6" s="2">
         <v>3599.4443052499996</v>
       </c>
-      <c r="O5" s="2">
+      <c r="P6" s="2">
         <v>7911.2241211250002</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q6" s="1">
         <v>1.9667749999999998E-2</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R6" s="6">
         <v>4.1250000000000003E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="5" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -9010,14 +9194,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>53</v>
       </c>
@@ -9030,7 +9214,7 @@
         <v>1582.5106551428569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -9041,7 +9225,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -9052,7 +9236,7 @@
         <v>1788.5745850000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -9063,7 +9247,7 @@
         <v>1430.6489260000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -9074,7 +9258,7 @@
         <v>2088.421143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -9085,7 +9269,7 @@
         <v>916.86975099999995</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2014</v>
       </c>
@@ -9096,7 +9280,7 @@
         <v>1703.4528809999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2015</v>
       </c>
@@ -9107,7 +9291,7 @@
         <v>1390.8328859999999</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2016</v>
       </c>
@@ -9118,7 +9302,7 @@
         <v>1758.774414</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2017</v>
       </c>
@@ -9129,7 +9313,7 @@
         <v>1849.645874</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2018</v>
       </c>
